--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.66003045967672</v>
+        <v>6.072131</v>
       </c>
       <c r="H2">
-        <v>1.66003045967672</v>
+        <v>18.216393</v>
       </c>
       <c r="I2">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J2">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.8227860038808</v>
+        <v>261.380203</v>
       </c>
       <c r="N2">
-        <v>47.8227860038808</v>
+        <v>784.1406089999999</v>
       </c>
       <c r="O2">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="P2">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="Q2">
-        <v>79.38728143304365</v>
+        <v>1587.134833422593</v>
       </c>
       <c r="R2">
-        <v>79.38728143304365</v>
+        <v>14284.21350080334</v>
       </c>
       <c r="S2">
-        <v>0.0004131919164368047</v>
+        <v>0.002748445770106722</v>
       </c>
       <c r="T2">
-        <v>0.0004131919164368047</v>
+        <v>0.002748445770106721</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.66003045967672</v>
+        <v>6.072131</v>
       </c>
       <c r="H3">
-        <v>1.66003045967672</v>
+        <v>18.216393</v>
       </c>
       <c r="I3">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J3">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.9201308328135</v>
+        <v>31.999428</v>
       </c>
       <c r="N3">
-        <v>31.9201308328135</v>
+        <v>95.998284</v>
       </c>
       <c r="O3">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826334</v>
       </c>
       <c r="P3">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826335</v>
       </c>
       <c r="Q3">
-        <v>52.98838945933643</v>
+        <v>194.304718741068</v>
       </c>
       <c r="R3">
-        <v>52.98838945933643</v>
+        <v>1748.742468669612</v>
       </c>
       <c r="S3">
-        <v>0.0002757919630749546</v>
+        <v>0.0003364780175506811</v>
       </c>
       <c r="T3">
-        <v>0.0002757919630749546</v>
+        <v>0.0003364780175506811</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.66003045967672</v>
+        <v>6.072131</v>
       </c>
       <c r="H4">
-        <v>1.66003045967672</v>
+        <v>18.216393</v>
       </c>
       <c r="I4">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J4">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.9004507531747</v>
+        <v>81.69901900000001</v>
       </c>
       <c r="N4">
-        <v>45.9004507531747</v>
+        <v>245.097057</v>
       </c>
       <c r="O4">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945166</v>
       </c>
       <c r="P4">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945167</v>
       </c>
       <c r="Q4">
-        <v>76.19614636316125</v>
+        <v>496.087145939489</v>
       </c>
       <c r="R4">
-        <v>76.19614636316125</v>
+        <v>4464.784313455401</v>
       </c>
       <c r="S4">
-        <v>0.0003965828174560632</v>
+        <v>0.0008590754793790512</v>
       </c>
       <c r="T4">
-        <v>0.0003965828174560632</v>
+        <v>0.0008590754793790512</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1476.30280581482</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H5">
-        <v>1476.30280581482</v>
+        <v>4442.55542</v>
       </c>
       <c r="I5">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J5">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.8227860038808</v>
+        <v>261.380203</v>
       </c>
       <c r="N5">
-        <v>47.8227860038808</v>
+        <v>784.1406089999999</v>
       </c>
       <c r="O5">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="P5">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="Q5">
-        <v>70600.91315941093</v>
+        <v>387065.3458394501</v>
       </c>
       <c r="R5">
-        <v>70600.91315941093</v>
+        <v>3483588.11255505</v>
       </c>
       <c r="S5">
-        <v>0.3674609595383269</v>
+        <v>0.6702821273434149</v>
       </c>
       <c r="T5">
-        <v>0.3674609595383269</v>
+        <v>0.6702821273434147</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1476.30280581482</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H6">
-        <v>1476.30280581482</v>
+        <v>4442.55542</v>
       </c>
       <c r="I6">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J6">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.9201308328135</v>
+        <v>31.999428</v>
       </c>
       <c r="N6">
-        <v>31.9201308328135</v>
+        <v>95.998284</v>
       </c>
       <c r="O6">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826334</v>
       </c>
       <c r="P6">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826335</v>
       </c>
       <c r="Q6">
-        <v>47123.77871045871</v>
+        <v>47386.41076609991</v>
       </c>
       <c r="R6">
-        <v>47123.77871045871</v>
+        <v>426477.6968948992</v>
       </c>
       <c r="S6">
-        <v>0.2452680591102063</v>
+        <v>0.0820591782676534</v>
       </c>
       <c r="T6">
-        <v>0.2452680591102063</v>
+        <v>0.0820591782676534</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1476.30280581482</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H7">
-        <v>1476.30280581482</v>
+        <v>4442.55542</v>
       </c>
       <c r="I7">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J7">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.9004507531747</v>
+        <v>81.69901900000001</v>
       </c>
       <c r="N7">
-        <v>45.9004507531747</v>
+        <v>245.097057</v>
       </c>
       <c r="O7">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945166</v>
       </c>
       <c r="P7">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945167</v>
       </c>
       <c r="Q7">
-        <v>67762.96423507678</v>
+        <v>120984.1398890443</v>
       </c>
       <c r="R7">
-        <v>67762.96423507678</v>
+        <v>1088857.259001399</v>
       </c>
       <c r="S7">
-        <v>0.3526901104346907</v>
+        <v>0.2095085688535871</v>
       </c>
       <c r="T7">
-        <v>0.3526901104346907</v>
+        <v>0.2095085688535871</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>51.2204597067405</v>
+        <v>52.663316</v>
       </c>
       <c r="H8">
-        <v>51.2204597067405</v>
+        <v>157.989948</v>
       </c>
       <c r="I8">
-        <v>0.03349530421980817</v>
+        <v>0.03420612626830831</v>
       </c>
       <c r="J8">
-        <v>0.03349530421980817</v>
+        <v>0.0342061262683083</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.8227860038808</v>
+        <v>261.380203</v>
       </c>
       <c r="N8">
-        <v>47.8227860038808</v>
+        <v>784.1406089999999</v>
       </c>
       <c r="O8">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="P8">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="Q8">
-        <v>2449.50508357585</v>
+        <v>13765.14822673315</v>
       </c>
       <c r="R8">
-        <v>2449.50508357585</v>
+        <v>123886.3340405983</v>
       </c>
       <c r="S8">
-        <v>0.01274909130951957</v>
+        <v>0.02383714516369849</v>
       </c>
       <c r="T8">
-        <v>0.01274909130951957</v>
+        <v>0.02383714516369848</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>51.2204597067405</v>
+        <v>52.663316</v>
       </c>
       <c r="H9">
-        <v>51.2204597067405</v>
+        <v>157.989948</v>
       </c>
       <c r="I9">
-        <v>0.03349530421980817</v>
+        <v>0.03420612626830831</v>
       </c>
       <c r="J9">
-        <v>0.03349530421980817</v>
+        <v>0.0342061262683083</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.9201308328135</v>
+        <v>31.999428</v>
       </c>
       <c r="N9">
-        <v>31.9201308328135</v>
+        <v>95.998284</v>
       </c>
       <c r="O9">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826334</v>
       </c>
       <c r="P9">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826335</v>
       </c>
       <c r="Q9">
-        <v>1634.963775156009</v>
+        <v>1685.195988583248</v>
       </c>
       <c r="R9">
-        <v>1634.963775156009</v>
+        <v>15166.76389724923</v>
       </c>
       <c r="S9">
-        <v>0.008509597549718794</v>
+        <v>0.002918258543059276</v>
       </c>
       <c r="T9">
-        <v>0.008509597549718794</v>
+        <v>0.002918258543059276</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>51.2204597067405</v>
+        <v>52.663316</v>
       </c>
       <c r="H10">
-        <v>51.2204597067405</v>
+        <v>157.989948</v>
       </c>
       <c r="I10">
-        <v>0.03349530421980817</v>
+        <v>0.03420612626830831</v>
       </c>
       <c r="J10">
-        <v>0.03349530421980817</v>
+        <v>0.0342061262683083</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.9004507531747</v>
+        <v>81.69901900000001</v>
       </c>
       <c r="N10">
-        <v>45.9004507531747</v>
+        <v>245.097057</v>
       </c>
       <c r="O10">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945166</v>
       </c>
       <c r="P10">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945167</v>
       </c>
       <c r="Q10">
-        <v>2351.042188324212</v>
+        <v>4302.541254487004</v>
       </c>
       <c r="R10">
-        <v>2351.042188324212</v>
+        <v>38722.87129038304</v>
       </c>
       <c r="S10">
-        <v>0.01223661536056981</v>
+        <v>0.007450722561550543</v>
       </c>
       <c r="T10">
-        <v>0.01223661536056981</v>
+        <v>0.007450722561550542</v>
       </c>
     </row>
   </sheetData>
